--- a/public/6 Daily Report - Test.xlsx
+++ b/public/6 Daily Report - Test.xlsx
@@ -25,7 +25,7 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>123</t>
+    <t>12</t>
   </si>
   <si>
     <t>DATE</t>
